--- a/biology/Médecine/Protéine_phosphatase/Protéine_phosphatase.xlsx
+++ b/biology/Médecine/Protéine_phosphatase/Protéine_phosphatase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prot%C3%A9ine_phosphatase</t>
+          <t>Protéine_phosphatase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Les Protéines phosphatases sont des enzymes (phosphatases) qui déphosphorylent les sérines, les thréonines, ou les tyrosines des protéines [1],[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Les Protéines phosphatases sont des enzymes (phosphatases) qui déphosphorylent les sérines, les thréonines, ou les tyrosines des protéines ,
 On distingue :
 Les phosphoprotéines phosphatases 1 (PP1) qui sont spécifiques des protéines de la protéine kinase A. Elles sont inhibées par un inhibiteur spécifique, qui lui-même est activé par phosphorylation grâce à la protéine kinase A.
 Les phosphoprotéines phosphatases 2A (PP2A) qui sont formées de trois sous-unités.
